--- a/data/strategies/安信场外策略结果.xlsx
+++ b/data/strategies/安信场外策略结果.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="179">
   <si>
     <t xml:space="preserve">天弘中证电子ETF联接A </t>
   </si>
@@ -59,73 +59,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>10.34%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>19.09%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>6.84%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>20.52%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>18.55%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>23.27%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>12.18%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>16.06%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>9.64%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>24.52%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>20.19%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>23.55%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场外权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场外基金</t>
@@ -143,58 +140,58 @@
     <t>011102.OF</t>
   </si>
   <si>
-    <t>8.86%</t>
-  </si>
-  <si>
-    <t>6.09%</t>
-  </si>
-  <si>
-    <t>15.83%</t>
-  </si>
-  <si>
-    <t>22.17%</t>
-  </si>
-  <si>
-    <t>6.14%</t>
-  </si>
-  <si>
-    <t>29.61%</t>
-  </si>
-  <si>
-    <t>8.53%</t>
-  </si>
-  <si>
-    <t>-1.86%</t>
-  </si>
-  <si>
-    <t>13.84%</t>
-  </si>
-  <si>
-    <t>22.71%</t>
-  </si>
-  <si>
-    <t>17.02%</t>
-  </si>
-  <si>
-    <t>34.71%</t>
-  </si>
-  <si>
-    <t>21.44%</t>
-  </si>
-  <si>
-    <t>16.25%</t>
-  </si>
-  <si>
-    <t>28.49%</t>
-  </si>
-  <si>
-    <t>25.59%</t>
-  </si>
-  <si>
-    <t>19.47%</t>
-  </si>
-  <si>
-    <t>36.05%</t>
+    <t>10.60%</t>
+  </si>
+  <si>
+    <t>2.26%</t>
+  </si>
+  <si>
+    <t>23.45%</t>
+  </si>
+  <si>
+    <t>15.60%</t>
+  </si>
+  <si>
+    <t>3.25%</t>
+  </si>
+  <si>
+    <t>29.49%</t>
+  </si>
+  <si>
+    <t>10.71%</t>
+  </si>
+  <si>
+    <t>-2.64%</t>
+  </si>
+  <si>
+    <t>20.84%</t>
+  </si>
+  <si>
+    <t>27.06%</t>
+  </si>
+  <si>
+    <t>22.56%</t>
+  </si>
+  <si>
+    <t>37.26%</t>
+  </si>
+  <si>
+    <t>22.74%</t>
+  </si>
+  <si>
+    <t>18.79%</t>
+  </si>
+  <si>
+    <t>30.09%</t>
+  </si>
+  <si>
+    <t>25.80%</t>
+  </si>
+  <si>
+    <t>20.12%</t>
+  </si>
+  <si>
+    <t>36.31%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -209,7 +206,7 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
   </si>
   <si>
     <t>300274.SZ</t>
@@ -218,346 +215,346 @@
     <t>601012.SH</t>
   </si>
   <si>
+    <t>600745.SH</t>
+  </si>
+  <si>
     <t>600438.SH</t>
   </si>
   <si>
+    <t>002415.SZ</t>
+  </si>
+  <si>
     <t>000063.SZ</t>
   </si>
   <si>
-    <t>002415.SZ</t>
-  </si>
-  <si>
-    <t>600745.SH</t>
+    <t>002129.SZ</t>
+  </si>
+  <si>
+    <t>688036.SH</t>
+  </si>
+  <si>
+    <t>002475.SZ</t>
+  </si>
+  <si>
+    <t>000725.SZ</t>
+  </si>
+  <si>
+    <t>601138.SH</t>
   </si>
   <si>
     <t>300450.SZ</t>
   </si>
   <si>
-    <t>000725.SZ</t>
-  </si>
-  <si>
-    <t>002129.SZ</t>
-  </si>
-  <si>
-    <t>002475.SZ</t>
-  </si>
-  <si>
-    <t>688036.SH</t>
+    <t>603501.SH</t>
+  </si>
+  <si>
+    <t>600089.SH</t>
+  </si>
+  <si>
+    <t>300136.SZ</t>
   </si>
   <si>
     <t>600522.SH</t>
   </si>
   <si>
-    <t>600089.SH</t>
-  </si>
-  <si>
-    <t>601138.SH</t>
-  </si>
-  <si>
-    <t>603501.SH</t>
-  </si>
-  <si>
-    <t>300136.SZ</t>
+    <t>603806.SH</t>
+  </si>
+  <si>
+    <t>300782.SZ</t>
   </si>
   <si>
     <t>300628.SZ</t>
   </si>
   <si>
-    <t>000100.SZ</t>
-  </si>
-  <si>
     <t>601877.SH</t>
   </si>
   <si>
-    <t>002465.SZ</t>
-  </si>
-  <si>
-    <t>3.90%</t>
-  </si>
-  <si>
-    <t>3.72%</t>
-  </si>
-  <si>
-    <t>3.70%</t>
-  </si>
-  <si>
-    <t>3.51%</t>
-  </si>
-  <si>
-    <t>3.03%</t>
-  </si>
-  <si>
-    <t>2.97%</t>
-  </si>
-  <si>
-    <t>2.38%</t>
-  </si>
-  <si>
-    <t>2.15%</t>
-  </si>
-  <si>
-    <t>2.07%</t>
-  </si>
-  <si>
-    <t>2.05%</t>
+    <t>377.85%</t>
+  </si>
+  <si>
+    <t>360.62%</t>
+  </si>
+  <si>
+    <t>336.70%</t>
+  </si>
+  <si>
+    <t>336.24%</t>
+  </si>
+  <si>
+    <t>313.20%</t>
+  </si>
+  <si>
+    <t>310.43%</t>
+  </si>
+  <si>
+    <t>288.35%</t>
+  </si>
+  <si>
+    <t>280.63%</t>
+  </si>
+  <si>
+    <t>233.74%</t>
+  </si>
+  <si>
+    <t>219.62%</t>
+  </si>
+  <si>
+    <t>206.45%</t>
+  </si>
+  <si>
+    <t>198.53%</t>
+  </si>
+  <si>
+    <t>174.34%</t>
+  </si>
+  <si>
+    <t>167.94%</t>
+  </si>
+  <si>
+    <t>166.78%</t>
+  </si>
+  <si>
+    <t>136.92%</t>
+  </si>
+  <si>
+    <t>136.65%</t>
+  </si>
+  <si>
+    <t>130.45%</t>
+  </si>
+  <si>
+    <t>126.72%</t>
+  </si>
+  <si>
+    <t>126.26%</t>
+  </si>
+  <si>
+    <t>阳光电源</t>
+  </si>
+  <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>闻泰科技</t>
+  </si>
+  <si>
+    <t>通威股份</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+  </si>
+  <si>
+    <t>中环股份</t>
+  </si>
+  <si>
+    <t>传音控股</t>
+  </si>
+  <si>
+    <t>立讯精密</t>
+  </si>
+  <si>
+    <t>京东方A</t>
+  </si>
+  <si>
+    <t>工业富联</t>
+  </si>
+  <si>
+    <t>先导智能</t>
+  </si>
+  <si>
+    <t>韦尔股份</t>
+  </si>
+  <si>
+    <t>特变电工</t>
+  </si>
+  <si>
+    <t>信维通信</t>
+  </si>
+  <si>
+    <t>中天科技</t>
+  </si>
+  <si>
+    <t>福斯特</t>
+  </si>
+  <si>
+    <t>卓胜微</t>
+  </si>
+  <si>
+    <t>亿联网络</t>
+  </si>
+  <si>
+    <t>正泰电器</t>
+  </si>
+  <si>
+    <t>电站系统集成(不含自制产品)</t>
+  </si>
+  <si>
+    <t>太阳能组件</t>
+  </si>
+  <si>
+    <t>手机及配件</t>
+  </si>
+  <si>
+    <t>配合饲料</t>
+  </si>
+  <si>
+    <t>前端音视频产品</t>
+  </si>
+  <si>
+    <t>运营商网络</t>
+  </si>
+  <si>
+    <t>新能源材料</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>消费性电子</t>
+  </si>
+  <si>
+    <t>显示器件业务</t>
+  </si>
+  <si>
+    <t>3C电子产品</t>
+  </si>
+  <si>
+    <t>锂电池设备</t>
+  </si>
+  <si>
+    <t>CMOS图像传感器产品</t>
+  </si>
+  <si>
+    <t>新能源产品及集成工程</t>
+  </si>
+  <si>
+    <t>移动终端天线及附件</t>
+  </si>
+  <si>
+    <t>商品贸易</t>
+  </si>
+  <si>
+    <t>EVA胶膜</t>
+  </si>
+  <si>
+    <t>射频开关</t>
+  </si>
+  <si>
+    <t>SIP统一通信桌面终端</t>
+  </si>
+  <si>
+    <t>太阳能电池组件</t>
+  </si>
+  <si>
+    <t>74.57%</t>
+  </si>
+  <si>
+    <t>41.29%</t>
+  </si>
+  <si>
+    <t>1.90%</t>
+  </si>
+  <si>
+    <t>8.06%</t>
+  </si>
+  <si>
+    <t>35.01%</t>
+  </si>
+  <si>
+    <t>2.87%</t>
+  </si>
+  <si>
+    <t>65.91%</t>
+  </si>
+  <si>
+    <t>24.24%</t>
+  </si>
+  <si>
+    <t>-18.67%</t>
+  </si>
+  <si>
+    <t>8.44%</t>
+  </si>
+  <si>
+    <t>-12.22%</t>
+  </si>
+  <si>
+    <t>28.45%</t>
+  </si>
+  <si>
+    <t>50.37%</t>
+  </si>
+  <si>
+    <t>36.65%</t>
+  </si>
+  <si>
+    <t>-11.16%</t>
+  </si>
+  <si>
+    <t>-3.47%</t>
+  </si>
+  <si>
+    <t>57.25%</t>
+  </si>
+  <si>
+    <t>49.93%</t>
+  </si>
+  <si>
+    <t>18.42%</t>
+  </si>
+  <si>
+    <t>-7.51%</t>
+  </si>
+  <si>
+    <t>一级标签</t>
+  </si>
+  <si>
+    <t>标签占比</t>
+  </si>
+  <si>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>消费电子</t>
+  </si>
+  <si>
+    <t>通信</t>
+  </si>
+  <si>
+    <t>电子</t>
+  </si>
+  <si>
+    <t>半导体芯片</t>
+  </si>
+  <si>
+    <t>光学光电子</t>
+  </si>
+  <si>
+    <t>锂电池</t>
+  </si>
+  <si>
+    <t>18.12%</t>
+  </si>
+  <si>
+    <t>10.28%</t>
+  </si>
+  <si>
+    <t>5.80%</t>
+  </si>
+  <si>
+    <t>5.25%</t>
+  </si>
+  <si>
+    <t>3.08%</t>
+  </si>
+  <si>
+    <t>2.22%</t>
   </si>
   <si>
     <t>2.01%</t>
-  </si>
-  <si>
-    <t>1.84%</t>
-  </si>
-  <si>
-    <t>1.75%</t>
-  </si>
-  <si>
-    <t>1.63%</t>
-  </si>
-  <si>
-    <t>1.53%</t>
-  </si>
-  <si>
-    <t>1.47%</t>
-  </si>
-  <si>
-    <t>1.43%</t>
-  </si>
-  <si>
-    <t>1.36%</t>
-  </si>
-  <si>
-    <t>1.31%</t>
-  </si>
-  <si>
-    <t>阳光电源</t>
-  </si>
-  <si>
-    <t>隆基股份</t>
-  </si>
-  <si>
-    <t>通威股份</t>
-  </si>
-  <si>
-    <t>中兴通讯</t>
-  </si>
-  <si>
-    <t>海康威视</t>
-  </si>
-  <si>
-    <t>闻泰科技</t>
-  </si>
-  <si>
-    <t>先导智能</t>
-  </si>
-  <si>
-    <t>京东方A</t>
-  </si>
-  <si>
-    <t>中环股份</t>
-  </si>
-  <si>
-    <t>立讯精密</t>
-  </si>
-  <si>
-    <t>传音控股</t>
-  </si>
-  <si>
-    <t>中天科技</t>
-  </si>
-  <si>
-    <t>特变电工</t>
-  </si>
-  <si>
-    <t>工业富联</t>
-  </si>
-  <si>
-    <t>韦尔股份</t>
-  </si>
-  <si>
-    <t>信维通信</t>
-  </si>
-  <si>
-    <t>亿联网络</t>
-  </si>
-  <si>
-    <t>TCL科技</t>
-  </si>
-  <si>
-    <t>正泰电器</t>
-  </si>
-  <si>
-    <t>海格通信</t>
-  </si>
-  <si>
-    <t>电站系统集成(不含自制产品)</t>
-  </si>
-  <si>
-    <t>太阳能组件</t>
-  </si>
-  <si>
-    <t>配合饲料</t>
-  </si>
-  <si>
-    <t>运营商网络</t>
-  </si>
-  <si>
-    <t>前端音视频产品</t>
-  </si>
-  <si>
-    <t>手机及配件</t>
-  </si>
-  <si>
-    <t>锂电池设备</t>
-  </si>
-  <si>
-    <t>显示器件业务</t>
-  </si>
-  <si>
-    <t>新能源材料</t>
-  </si>
-  <si>
-    <t>消费性电子</t>
-  </si>
-  <si>
-    <t>手机</t>
-  </si>
-  <si>
-    <t>商品贸易</t>
-  </si>
-  <si>
-    <t>新能源产品及集成工程</t>
-  </si>
-  <si>
-    <t>3C电子产品</t>
-  </si>
-  <si>
-    <t>CMOS图像传感器产品</t>
-  </si>
-  <si>
-    <t>移动终端天线及附件</t>
-  </si>
-  <si>
-    <t>SIP统一通信桌面终端</t>
-  </si>
-  <si>
-    <t>半导体显示业务</t>
-  </si>
-  <si>
-    <t>太阳能电池组件</t>
-  </si>
-  <si>
-    <t>无线通信</t>
-  </si>
-  <si>
-    <t>61.09%</t>
-  </si>
-  <si>
-    <t>32.52%</t>
-  </si>
-  <si>
-    <t>9.78%</t>
-  </si>
-  <si>
-    <t>-0.15%</t>
-  </si>
-  <si>
-    <t>36.18%</t>
-  </si>
-  <si>
-    <t>-4.98%</t>
-  </si>
-  <si>
-    <t>11.23%</t>
-  </si>
-  <si>
-    <t>7.93%</t>
-  </si>
-  <si>
-    <t>44.06%</t>
-  </si>
-  <si>
-    <t>-15.69%</t>
-  </si>
-  <si>
-    <t>45.11%</t>
-  </si>
-  <si>
-    <t>-7.49%</t>
-  </si>
-  <si>
-    <t>29.00%</t>
-  </si>
-  <si>
-    <t>-7.97%</t>
-  </si>
-  <si>
-    <t>30.18%</t>
-  </si>
-  <si>
-    <t>-13.19%</t>
-  </si>
-  <si>
-    <t>20.75%</t>
-  </si>
-  <si>
-    <t>14.10%</t>
-  </si>
-  <si>
-    <t>-8.67%</t>
-  </si>
-  <si>
-    <t>-8.90%</t>
-  </si>
-  <si>
-    <t>一级标签</t>
-  </si>
-  <si>
-    <t>标签占比</t>
-  </si>
-  <si>
-    <t>电子</t>
-  </si>
-  <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>通信</t>
-  </si>
-  <si>
-    <t>饲料养殖</t>
-  </si>
-  <si>
-    <t>锂电池</t>
-  </si>
-  <si>
-    <t>电气设备</t>
-  </si>
-  <si>
-    <t>集成电路</t>
-  </si>
-  <si>
-    <t>军工</t>
-  </si>
-  <si>
-    <t>34.35%</t>
-  </si>
-  <si>
-    <t>29.94%</t>
-  </si>
-  <si>
-    <t>7.51%</t>
-  </si>
-  <si>
-    <t>4.83%</t>
-  </si>
-  <si>
-    <t>3.55%</t>
-  </si>
-  <si>
-    <t>3.31%</t>
-  </si>
-  <si>
-    <t>2.66%</t>
   </si>
 </sst>
 </file>
@@ -921,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3623,22 +3620,229 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.085348696992028</v>
+        <v>1.094995645474643</v>
       </c>
       <c r="C118">
-        <v>0.9813585789576421</v>
+        <v>0.9945344524692562</v>
       </c>
       <c r="D118">
-        <v>1.138427044068423</v>
+        <v>1.138426987772964</v>
       </c>
       <c r="E118">
-        <v>1.057694325605971</v>
+        <v>1.065225838286565</v>
       </c>
       <c r="F118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="G118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.080056273866149</v>
+      </c>
+      <c r="C119">
+        <v>0.9736482529767715</v>
+      </c>
+      <c r="D119">
+        <v>1.169976708316675</v>
+      </c>
+      <c r="E119">
+        <v>1.063814807602666</v>
+      </c>
+      <c r="F119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="G119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.103369732699136</v>
+      </c>
+      <c r="C120">
+        <v>0.9915088815147375</v>
+      </c>
+      <c r="D120">
+        <v>1.184750381992839</v>
+      </c>
+      <c r="E120">
+        <v>1.082277568748215</v>
+      </c>
+      <c r="F120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="G120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.084142828431701</v>
+      </c>
+      <c r="C121">
+        <v>0.9707202810853016</v>
+      </c>
+      <c r="D121">
+        <v>1.147442677430058</v>
+      </c>
+      <c r="E121">
+        <v>1.05676090969253</v>
+      </c>
+      <c r="F121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="G121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.060628391505326</v>
+      </c>
+      <c r="C122">
+        <v>0.9501268787819638</v>
+      </c>
+      <c r="D122">
+        <v>1.132532487265123</v>
+      </c>
+      <c r="E122">
+        <v>1.037284959992296</v>
+      </c>
+      <c r="F122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="G122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.085013733503048</v>
+      </c>
+      <c r="C123">
+        <v>0.9756002342377514</v>
+      </c>
+      <c r="D123">
+        <v>1.151187676563671</v>
+      </c>
+      <c r="E123">
+        <v>1.059894542620475</v>
+      </c>
+      <c r="F123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="G123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.078649427212434</v>
+      </c>
+      <c r="C124">
+        <v>0.9763810267421432</v>
+      </c>
+      <c r="D124">
+        <v>1.128655109358996</v>
+      </c>
+      <c r="E124">
+        <v>1.050616235893479</v>
+      </c>
+      <c r="F124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="G124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.095665572452603</v>
+      </c>
+      <c r="C125">
+        <v>0.9812609798945932</v>
+      </c>
+      <c r="D125">
+        <v>1.18879324040154</v>
+      </c>
+      <c r="E125">
+        <v>1.077687531607083</v>
+      </c>
+      <c r="F125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="G125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.119380987472366</v>
+      </c>
+      <c r="C126">
+        <v>0.9776498145617802</v>
+      </c>
+      <c r="D126">
+        <v>1.200642730888226</v>
+      </c>
+      <c r="E126">
+        <v>1.088232265864383</v>
+      </c>
+      <c r="F126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="G126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.107121323775708</v>
+      </c>
+      <c r="C127">
+        <v>0.9736482529767715</v>
+      </c>
+      <c r="D127">
+        <v>1.208409224303741</v>
+      </c>
+      <c r="E127">
+        <v>1.085429004348553</v>
+      </c>
+      <c r="F127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="G127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -3750,18 +3954,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -3793,131 +3997,119 @@
       <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2">
         <v>0.33</v>
       </c>
       <c r="J2">
-        <v>49.36</v>
+        <v>5.511099815368652</v>
       </c>
       <c r="K2">
-        <v>5.46</v>
+        <v>49.79249954223633</v>
       </c>
       <c r="L2">
-        <v>12.3</v>
-      </c>
-      <c r="M2">
-        <v>15.88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>15.885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3">
         <v>0.33</v>
       </c>
       <c r="J3">
-        <v>33.13</v>
+        <v>3.245599985122681</v>
       </c>
       <c r="K3">
-        <v>3.36</v>
+        <v>32.04690170288086</v>
       </c>
       <c r="L3">
-        <v>5.49</v>
-      </c>
-      <c r="M3">
-        <v>-8.800000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>-8.7982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4">
         <v>0.33</v>
       </c>
       <c r="J4">
-        <v>48.82</v>
+        <v>5.359000205993652</v>
       </c>
       <c r="K4">
-        <v>4.98</v>
+        <v>52.7661018371582</v>
       </c>
       <c r="L4">
-        <v>15.45</v>
-      </c>
-      <c r="M4">
-        <v>44.9</v>
+        <v>44.9032</v>
       </c>
     </row>
   </sheetData>
@@ -3935,19 +4127,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3955,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>103</v>
@@ -3975,10 +4167,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
         <v>104</v>
@@ -3995,10 +4187,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
         <v>105</v>
@@ -4015,10 +4207,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
         <v>106</v>
@@ -4035,10 +4227,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
         <v>107</v>
@@ -4055,10 +4247,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
         <v>108</v>
@@ -4075,10 +4267,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
         <v>109</v>
@@ -4095,10 +4287,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
         <v>110</v>
@@ -4115,10 +4307,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
         <v>111</v>
@@ -4135,10 +4327,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
         <v>112</v>
@@ -4155,10 +4347,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
         <v>113</v>
@@ -4175,10 +4367,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
         <v>114</v>
@@ -4195,10 +4387,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
         <v>115</v>
@@ -4215,7 +4407,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
         <v>96</v>
@@ -4235,7 +4427,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
         <v>97</v>
@@ -4255,7 +4447,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
         <v>98</v>
@@ -4275,7 +4467,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
         <v>99</v>
@@ -4295,7 +4487,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
         <v>100</v>
@@ -4315,7 +4507,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
         <v>101</v>
@@ -4335,7 +4527,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
         <v>102</v>
@@ -4357,7 +4549,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4373,40 +4565,40 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>168</v>
@@ -4417,7 +4609,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>169</v>
@@ -4428,7 +4620,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>170</v>
@@ -4446,17 +4638,6 @@
       </c>
       <c r="C8" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
